--- a/data/VOC Monthly Infographic - Hyperlinks_brian_donohue.xlsx
+++ b/data/VOC Monthly Infographic - Hyperlinks_brian_donohue.xlsx
@@ -802,12 +802,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eisai Inc - 200 Metro Blvd</t>
+          <t>Merck WP Building 53 Coffee Bar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17945</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>4.88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -831,12 +831,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Merck WP Building 53 Coffee Bar</t>
+          <t>Eisai Inc - 200 Metro Blvd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16294</t>
+          <t>17945</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -849,7 +849,7 @@
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="15">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Merck - Rahway</t>
+          <t>Bausch Health</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16307</t>
+          <t>28966</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>4.14</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="21">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HCSC - Chicago - Cafe 300</t>
+          <t>AstraZeneca Wilmington</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>23388</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>3.94</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="22">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bausch Health</t>
+          <t>Merck - Rahway</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28966</t>
+          <t>16307</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>4.61</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="23">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AstraZeneca Wilmington</t>
+          <t>HCSC - Chicago - Cafe 300</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>23388</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1110,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>4.75</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="24">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HCSC Richardson Café Bleu</t>
+          <t>Vanguard Morgan Chandlery</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23665</t>
+          <t>58682</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.28</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="26">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AstraZeneca - Newark</t>
+          <t>HCSC Richardson Café Bleu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19099</t>
+          <t>23665</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1197,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="27">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vanguard Morgan Chandlery</t>
+          <t>AstraZeneca - Newark</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>58682</t>
+          <t>19099</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>4.83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mediacom</t>
+          <t>Asurion Coffee Bar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27435</t>
+          <t>57218</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1255,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="29">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Vanguard Zealous</t>
+          <t>Mediacom</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>58599</t>
+          <t>27435</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="30">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Asurion Coffee Bar</t>
+          <t>Vanguard Quarry Ridge</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>57218</t>
+          <t>58594</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>3.67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vanguard Quarry Ridge</t>
+          <t>Vanguard Zealous</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>58594</t>
+          <t>58599</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bayer Creve Coeur Cafe A</t>
+          <t>Federal Reserve Bank</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>51745</t>
+          <t>16943</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="34">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vanguard Raintree</t>
+          <t>Bayer Creve Coeur Cafe A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>58596</t>
+          <t>51745</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="35">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CSL Behring Café 1040</t>
+          <t>HCSC Abilene Café 322</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>58965</t>
+          <t>41518</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="36">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank</t>
+          <t>CSL Behring Café 1040</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16943</t>
+          <t>58965</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1487,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>4.88</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vanguard Morehall</t>
+          <t>Merck WP 38 Café</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>58589</t>
+          <t>16296</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HCSC Abilene Café 322</t>
+          <t>Vanguard Raintree</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>41518</t>
+          <t>58596</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>3.88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Merck WP 38 Café</t>
+          <t>Vanguard Morehall</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16296</t>
+          <t>58589</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1574,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="40">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Paychex Panorama</t>
+          <t>Vanguard Water Ridge</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31567</t>
+          <t>58597</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vanguard Water Ridge</t>
+          <t>Everest Global</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>55163</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Infineum USA L.P. Cafe</t>
+          <t>GAF</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18179</t>
+          <t>29321</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1661,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="43">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Endo International</t>
+          <t>Paychex Panorama</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26910</t>
+          <t>31567</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1690,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Everest Global</t>
+          <t>Endo International</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>55163</t>
+          <t>26910</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GAF</t>
+          <t>Infineum USA L.P. Cafe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>29321</t>
+          <t>18179</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>3.17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vanguard Liberty</t>
+          <t>Northwell Health 972</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>58588</t>
+          <t>47917</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Merck WP Building 75C Cafe</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16292</t>
+          <t>62988</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Abbvie Irvine</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>62988</t>
+          <t>52009</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="51">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Abbvie Irvine</t>
+          <t>Merck WP Building 75C Cafe</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>52009</t>
+          <t>16292</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="52">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Northwell Health 972</t>
+          <t>Vanguard Liberty</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>47917</t>
+          <t>58588</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Merck Rahway 119 Micro Market</t>
+          <t>BASF - Florham Park</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>43863</t>
+          <t>25694</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bayer Saxonburg</t>
+          <t>Church &amp; Dwight</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>45029</t>
+          <t>47029</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Onsemi</t>
+          <t>Bayer Saxonburg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>63040</t>
+          <t>45029</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Church &amp; Dwight</t>
+          <t>Merck Upper Gwynedd Coffee Bar</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>47029</t>
+          <t>17216</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Merck WP Building 53 - Store</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16293</t>
+          <t>32136</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WuXi Biologics</t>
+          <t>Paychex 133 Calkins Micro Market</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>59751</t>
+          <t>31569A</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>Merck Rahway 80B Micro Market</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>32136</t>
+          <t>55317</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BASF - Florham Park</t>
+          <t>Merck Rahway 119 Micro Market</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>25694</t>
+          <t>43863</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Merck Upper Gwynedd Coffee Bar</t>
+          <t>WuXi Biologics</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17216</t>
+          <t>59751</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Paychex 133 Calkins Micro Market</t>
+          <t>Merck WP Building 53 - Store</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31569A</t>
+          <t>16293</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Merck Rahway 80B Micro Market</t>
+          <t>Onsemi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>55317</t>
+          <t>63040</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2310,12 +2310,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mindray</t>
+          <t>Armstrong World Industries</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13221</t>
+          <t>53872</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vanguard Devon</t>
+          <t>Bayer Indianola</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>58586</t>
+          <t>45027</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Washington Nationals</t>
+          <t>McKesson Las Colinas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>61923</t>
+          <t>56108</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Merck - Cambridge</t>
+          <t>Eisai Inc 15th Floor Coffee Bar</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>58890</t>
+          <t>58267</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Merck Las Piedras</t>
+          <t>Reckitt Benckiser</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>23473</t>
+          <t>17439</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bayer Kansas City</t>
+          <t>Merck Cherokee Cafe</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>45442</t>
+          <t>17408</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Merck Rahway 34</t>
+          <t>Vanguard Rad Coffee Bar</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>28493</t>
+          <t>58687</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HCSC Montana Café 406</t>
+          <t>Mindray</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>40385</t>
+          <t>13221</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vanguard Raintree Coffee Bar</t>
+          <t>Paychex 220 Kenneth Micro Market</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>58688</t>
+          <t>31569B</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paychex University Park Cafe </t>
+          <t>West Pharmaceuticals</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31569</t>
+          <t>26774</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bayer - Morristown </t>
+          <t>Merck Rahway 34</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>28493</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Abbvie Branchburg</t>
+          <t xml:space="preserve">Paychex University Park Cafe </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>57931</t>
+          <t>31569</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vanguard PA Catering</t>
+          <t>Paychex 135 Calkins Micro Market</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>58692</t>
+          <t>31569D</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paychex Panorama Trail Micro Market</t>
+          <t>Merck SSF Cafe</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31567A</t>
+          <t>46739</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Merck SSF Cafe</t>
+          <t>Abbvie Madison</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>46739</t>
+          <t>47031</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2715,12 +2715,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Bayer O'Hara</t>
+          <t>Northwell Health Inc</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>45082</t>
+          <t>47035</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Northwell Health 600</t>
+          <t>Getinge</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>47918</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Merck Rahway Coffee Bar</t>
+          <t>HCSC - Chicago - Tree House</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16433</t>
+          <t>25010</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Merck Canada</t>
+          <t>Abbvie Branchburg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>43077</t>
+          <t>57931</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2850,12 +2850,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Reckitt Benckiser</t>
+          <t>Merck WP 37 Micro Market</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17439</t>
+          <t>16291</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HCSC - Chicago - Tree House</t>
+          <t>Bayer Kansas City</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25010</t>
+          <t>45442</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2904,12 +2904,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>West Pharmaceuticals</t>
+          <t>Bayer O'Hara</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>26774</t>
+          <t>45082</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Getinge</t>
+          <t>Merck Canada</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>43077</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Merck WP 37 Micro Market</t>
+          <t>New York Football Giants</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16291</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Eisai Inc 1st Floor Coffee Bar</t>
+          <t>Paychex Panorama Trail Micro Market</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>58266</t>
+          <t>31567A</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vanguard Pima</t>
+          <t>Merck Rahway Coffee Bar</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>58593</t>
+          <t>16433</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Merck - Boston Cafe</t>
+          <t>MLB Network</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16320</t>
+          <t>22400</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Paychex Research Micro Market</t>
+          <t>Vanguard Raintree Coffee Bar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>31569G</t>
+          <t>58688</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3120,12 +3120,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Paychex 220 Kenneth Micro Market</t>
+          <t>Paychex Research Micro Market</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>31569B</t>
+          <t>31569G</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Northwell Health Inc</t>
+          <t>HCSC Montana Café 406</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>47035</t>
+          <t>40385</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MLB Network</t>
+          <t>Paychex Panorama Trail 4th Floor Micro Market</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>22400</t>
+          <t>31567B</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Archdiocese of Newark</t>
+          <t>Paychex 131 Calkins Micro Market</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13690</t>
+          <t>31569E</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Vanguard Rad Coffee Bar</t>
+          <t>Dell Medical HTB Cafe</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>58687</t>
+          <t>41399</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Merck - Kenilworth NJ - K15</t>
+          <t>Merck Las Piedras</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>22814</t>
+          <t>23473</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CSL Behring Coffee Bar 1060</t>
+          <t>Merck - Cambridge</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>58967</t>
+          <t>58890</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Paychex Webster Micro Market</t>
+          <t xml:space="preserve">Bayer - Morristown </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>31569F</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>New York Football Giants</t>
+          <t>Bessemer Trust 2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>40362</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Dell Medical HTB Cafe</t>
+          <t>Merck - Kenilworth NJ - K15</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>41399</t>
+          <t>22814</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Vanguard Bogle Coffee Bar</t>
+          <t>Vanguard Pima Coffee Bar</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>58584</t>
+          <t>58696</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -3417,12 +3417,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Paychex 131 Calkins Micro Market</t>
+          <t>Northwell Health 600</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>31569E</t>
+          <t>47918</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -3444,12 +3444,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Bessemer Trust 2</t>
+          <t>McKesson Jacksonville</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>40362</t>
+          <t>56107</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Paychex 135 Calkins Micro Market</t>
+          <t>Vanguard PA Catering</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31569D</t>
+          <t>58692</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3498,12 +3498,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>McKesson Las Colinas</t>
+          <t>Eisai Inc 1st Floor Coffee Bar</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>56108</t>
+          <t>58266</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HCSC Catering - Chicago</t>
+          <t>CSL Behring Coffee Bar 1060</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>27563</t>
+          <t>58967</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Armstrong World Industries</t>
+          <t>Vanguard Devon</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>53872</t>
+          <t>58586</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Vanguard Pima Coffee Bar</t>
+          <t>HCSC Catering - Chicago</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>58696</t>
+          <t>27563</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3606,12 +3606,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Paychex 225 Kenneth Micro Market</t>
+          <t>LA Rams</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>31569C</t>
+          <t>65857</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Bayer Indianola</t>
+          <t>Merck - Boston Cafe</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>45027</t>
+          <t>16320</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3660,12 +3660,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Eisai Inc 15th Floor Coffee Bar</t>
+          <t>Archdiocese of Newark</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>58267</t>
+          <t>13690</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3687,12 +3687,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Merck Cherokee Cafe</t>
+          <t>Washington Nationals</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>17408</t>
+          <t>61923</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3714,12 +3714,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Paychex Panorama Trail 4th Floor Micro Market</t>
+          <t>Vanguard Bogle Coffee Bar</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>31567B</t>
+          <t>58584</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LA Rams</t>
+          <t>Paychex Webster Micro Market</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>65857</t>
+          <t>31569F</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3768,12 +3768,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>McKesson Jacksonville</t>
+          <t>Paychex 225 Kenneth Micro Market</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>56107</t>
+          <t>31569C</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Abbvie Madison</t>
+          <t>Vanguard Pima</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>47031</t>
+          <t>58593</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cheeseburger had the full piece of wax paper from the cheese cooked in the burger.</t>
+          <t>I ordered a cheeseburger and the full wax paper that separates cheese slices was cooked into the burger. I was unable to eat it.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I ordered a cheeseburger and the full wax paper that separates cheese slices was cooked into the burger. I was unable to eat it.</t>
+          <t>Cheeseburger had the full piece of wax paper from the cheese cooked in the burger.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">There is rate in cafeteria that need to take care because it's a food safety violation </t>
+          <t>Saw a rate in cafeteria during 2nd shift.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Saw a rate in cafeteria during 2nd shift.</t>
+          <t xml:space="preserve">There is rate in cafeteria that need to take care because it's a food safety violation </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>58598</t>
+          <t>31567</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vanguard Windsor</t>
+          <t>Paychex Panorama</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I paid extra for avocado and it was not included with my omlette </t>
+          <t>Tater tots very overcooked. Could not eat them.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31567</t>
+          <t>58598</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Paychex Panorama</t>
+          <t>Vanguard Windsor</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tater tots very overcooked. Could not eat them.</t>
+          <t xml:space="preserve">I paid extra for avocado and it was not included with my omlette </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>16292</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vanguard Orion</t>
+          <t>Merck WP Building 75C Cafe</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -4336,17 +4336,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Missing and inaccurate order</t>
+          <t xml:space="preserve">This isnt just one experience, this is the ongoing state of the 75C cafeteria. No one fills the silverware and napkin dispensers unless they are asked to. The main entre is typically empty by noon, but not refilled until 12:15. This means people showing up for the entre end up having to scrounge for something else, then have already bought something by the time the self serve is refilled, so all that food is wasted. Several times I have made online orders and paid extra for FLIK chips or fries that were not available that day so some free option was substituted and no refunds or apologies were given for the substitutions. 
+Overall I think 75C needs someone to manage it who can ensure that food and utensils are available during meal times. No one currently there seems capable of that. </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4363,12 +4364,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16292</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Merck WP Building 75C Cafe</t>
+          <t>Vanguard Orion</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -4376,18 +4377,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">This isnt just one experience, this is the ongoing state of the 75C cafeteria. No one fills the silverware and napkin dispensers unless they are asked to. The main entre is typically empty by noon, but not refilled until 12:15. This means people showing up for the entre end up having to scrounge for something else, then have already bought something by the time the self serve is refilled, so all that food is wasted. Several times I have made online orders and paid extra for FLIK chips or fries that were not available that day so some free option was substituted and no refunds or apologies were given for the substitutions. 
-Overall I think 75C needs someone to manage it who can ensure that food and utensils are available during meal times. No one currently there seems capable of that. </t>
+          <t>Missing and inaccurate order</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4457,17 +4457,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>It just the meal was not good at all</t>
+          <t>Gumbo dish is very expensive to make . It was missing a lot of ingredients</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -4497,17 +4497,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gumbo dish is very expensive to make . It was missing a lot of ingredients</t>
+          <t>It just the meal was not good at all</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8808</t>
+          <t>27362</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bayer Cafe 64 Berkeley</t>
+          <t>Bayer - Whippany</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -4577,17 +4577,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Petite sandwich and small soup very small portion</t>
+          <t xml:space="preserve">Nothing at this time </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4617,17 +4617,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
+          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nothing at this time </t>
+          <t xml:space="preserve">Just ensure that whatever is requested on sandwiches are correct.  Most of the time it is but it has been missed just a couple of times </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27362</t>
+          <t>8808</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bayer - Whippany</t>
+          <t>Bayer Cafe 64 Berkeley</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Just ensure that whatever is requested on sandwiches are correct.  Most of the time it is but it has been missed just a couple of times </t>
+          <t>Petite sandwich and small soup very small portion</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29321</t>
+          <t>31567</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GAF</t>
+          <t>Paychex Panorama</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -4737,17 +4737,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Just wanted to let you know today and a few weeks back I ordered the #4 roll and they have been dry and partially stale.  Usually they are fresh.  Seems from being out in open air they are getting stale.</t>
+          <t>Paid essentially an extra $3 for a half of a chicken tender. If I'm paying an extra $3 for one extra chicken finger and fries, I would really hope it was a full one! I took a picture for proof and got feedback from a couple of my co-workers. These are already small as it is. I'm honestly so disappointed as I order from the cafe nearly every day.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31567</t>
+          <t>29321</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Paychex Panorama</t>
+          <t>GAF</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -4777,17 +4777,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Paid essentially an extra $3 for a half of a chicken tender. If I'm paying an extra $3 for one extra chicken finger and fries, I would really hope it was a full one! I took a picture for proof and got feedback from a couple of my co-workers. These are already small as it is. I'm honestly so disappointed as I order from the cafe nearly every day.</t>
+          <t>Just wanted to let you know today and a few weeks back I ordered the #4 roll and they have been dry and partially stale.  Usually they are fresh.  Seems from being out in open air they are getting stale.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>16295</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vanguard Orion</t>
+          <t>Merck WP Building 53  Cafe</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">My credit card was charged twice for lunch, would you please refund one? </t>
+          <t>Ordered and paid for hot wrap + flik chips at kiosk, got back to my desk and there were no flik chips</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58587</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vanguard Leander</t>
+          <t>Vanguard Orion</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -4897,17 +4897,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please train staff that after handling raw chicken and cell phones at grill to change gloves or wash hands before grabbing other non-cooked food to maintain health standards. Chose not to eat my food today because of this. </t>
+          <t xml:space="preserve">My credit card was charged twice for lunch, would you please refund one? </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4924,12 +4924,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16295</t>
+          <t>58587</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Merck WP Building 53  Cafe</t>
+          <t>Vanguard Leander</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ordered and paid for hot wrap + flik chips at kiosk, got back to my desk and there were no flik chips</t>
+          <t xml:space="preserve">Please train staff that after handling raw chicken and cell phones at grill to change gloves or wash hands before grabbing other non-cooked food to maintain health standards. Chose not to eat my food today because of this. </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>58590</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vanguard Morgan</t>
+          <t>Vanguard Orion</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -5017,13 +5017,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">I feel like I may be having a reaction to food I got this morning. I'd like to look up the gluten situation and ingredients for other allergen exposure (alpha gal) (maybe ingredients within the sliced pressed turkey?) . Crap, i assumed it was turkey. Was it pork or something else? It was a pale pink.   However, the 'nutrition information' page is not displaying info, nor has it been for months. Im not at my usual cafe this morning and there are offerings I am not familiar with. I have heard that the dietician is on leave and thus not doing it at all. I regularly use this info to be informed of allergens, and have had accidental dairy exposures at other locations which I could have avoided using this info.  I wish I had known this info just is not going to be available for months so I would have made plans to eat somewhere else day after day.  
-Im looking to see if there was wheat or carageenan, gelatin, or other mammal/alpha gal risk ingredients in the turkey or other avocado bar items I served - spiced tomatoes, cucumber, avocado, egg. </t>
+          <t>menu is not updated for the week</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5045,12 +5044,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>58590</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vanguard Water Ridge</t>
+          <t>Vanguard Morgan</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -5058,17 +5057,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>No chicken in salad bar at 12:30</t>
+          <t xml:space="preserve">Ordered the continental breakfast for 20.  The order total was $318.00 including tax.  There seemed to be hardly any food for that price.  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5085,12 +5084,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>58597</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vanguard Orion</t>
+          <t>Vanguard Water Ridge</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -5098,17 +5097,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>menu is not updated for the week</t>
+          <t>No chicken in salad bar at 12:30</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5341,12 +5340,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ordered the continental breakfast for 20.  The order total was $318.00 including tax.  There seemed to be hardly any food for that price.  </t>
+          <t xml:space="preserve">I feel like I may be having a reaction to food I got this morning. I'd like to look up the gluten situation and ingredients for other allergen exposure (alpha gal) (maybe ingredients within the sliced pressed turkey?) . Crap, i assumed it was turkey. Was it pork or something else? It was a pale pink.   However, the 'nutrition information' page is not displaying info, nor has it been for months. Im not at my usual cafe this morning and there are offerings I am not familiar with. I have heard that the dietician is on leave and thus not doing it at all. I regularly use this info to be informed of allergens, and have had accidental dairy exposures at other locations which I could have avoided using this info.  I wish I had known this info just is not going to be available for months so I would have made plans to eat somewhere else day after day.  
+Im looking to see if there was wheat or carageenan, gelatin, or other mammal/alpha gal risk ingredients in the turkey or other avocado bar items I served - spiced tomatoes, cucumber, avocado, egg. </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brought fried chicken wings for lunch. No flavor, way too much bread crust with little meat on bones. At least two other people threw away their chicken wings as well. Need a new chef quick </t>
+          <t xml:space="preserve">Brought grilled zucchini and squash could not eat as it was undercooked and very chewy due to that </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brought grilled zucchini and squash could not eat as it was undercooked and very chewy due to that </t>
+          <t xml:space="preserve">Brought fried chicken wings for lunch. No flavor, way too much bread crust with little meat on bones. At least two other people threw away their chicken wings as well. Need a new chef quick </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>51747</t>
+          <t>58590</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bayer Chesterfield</t>
+          <t>Vanguard Morgan</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -5581,17 +5581,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>I ordered the BYO burrito bowl today which the ingredients looked amazing. However, for almost $9 a bowl, my bowl wasn't even filled halfway. A small scoop of rice and approx. 5 pieces of chicken with some lettuce and cheese sprinkled on top. Completely not worth the amount of money I spent on it.</t>
+          <t>Nothing at this time</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58590</t>
+          <t>51747</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vanguard Morgan</t>
+          <t>Bayer Chesterfield</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -5621,17 +5621,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>That’s incredible, we love that we’ve exceeded your expectations. What could we do to make your experience even better?</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nothing at this time</t>
+          <t>I ordered the BYO burrito bowl today which the ingredients looked amazing. However, for almost $9 a bowl, my bowl wasn't even filled halfway. A small scoop of rice and approx. 5 pieces of chicken with some lettuce and cheese sprinkled on top. Completely not worth the amount of money I spent on it.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5701,12 +5701,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Online breakfast order is 75 cents more than using kiosk at cafe. Why?</t>
+          <t xml:space="preserve">Order online for breakfast sandwich is 75 cents higher than ordering on kiosk </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Order online for breakfast sandwich is 75 cents higher than ordering on kiosk </t>
+          <t>Online breakfast order is 75 cents more than using kiosk at cafe. Why?</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -5826,12 +5826,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Got the shrimp last Friday and it was tough to eat and seasoning so heavy you couldn’t even taste the shrimp. Just made me thirsty to wash away the aftertaste.  Money down the drain again.  Food quantity and lack of variety since the change in chef’s.  I will just eat out for lunch like the rest of my colleagues who are disappointed with the 2025 changes </t>
+          <t xml:space="preserve">Food has little taste: Orange chicken very bland and herbs marinated pork loin was flavorless. Collard greens had no seasoning, mashed sweet potatoes were okay </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23665</t>
+          <t>17697</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HCSC Richardson Café Bleu</t>
+          <t>Merck Durham Cafe</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -5861,17 +5861,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I was unable to order a special you have for this week of the Guac,Cheddar,Bacon Burger because it says "due to your nutritional preferences"????? I couldnt order it.  Where are my preferences and how do I change them if this is correct? Disappointed about this.</t>
+          <t xml:space="preserve">Got the shrimp last Friday and it was tough to eat and seasoning so heavy you couldn’t even taste the shrimp. Just made me thirsty to wash away the aftertaste.  Money down the drain again.  Food quantity and lack of variety since the change in chef’s.  I will just eat out for lunch like the rest of my colleagues who are disappointed with the 2025 changes </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5901,17 +5901,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>I tried to order the Guac burger today and it wouldnt let me because it stated "due to my nutritional preferences" ???? I didn't make any preferences.</t>
+          <t>stated previously about NOT being able to order Guac burger due to nutritional preferences that I didnt choose.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Please let us know what happened during your experience. What was incorrect about your most recent order? - Other, please specify - Text</t>
+          <t>We want to make sure your mobile experience is a good one. What could be improved about the mobile app ordering experience? - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>stated previously about NOT being able to order Guac burger due to nutritional preferences that I didnt choose.</t>
+          <t>I was unable to order a special you have for this week of the Guac,Cheddar,Bacon Burger because it says "due to your nutritional preferences"????? I couldnt order it.  Where are my preferences and how do I change them if this is correct? Disappointed about this.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>58590</t>
+          <t>23665</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Vanguard Morgan</t>
+          <t>HCSC Richardson Café Bleu</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Nutrition Calculator is not working</t>
+          <t>I tried to order the Guac burger today and it wouldnt let me because it stated "due to my nutritional preferences" ???? I didn't make any preferences.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -6008,12 +6008,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>17697</t>
+          <t>58590</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Merck Durham Cafe</t>
+          <t>Vanguard Morgan</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -6021,17 +6021,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Food has little taste: Orange chicken very bland and herbs marinated pork loin was flavorless. Collard greens had no seasoning, mashed sweet potatoes were okay </t>
+          <t>Nutrition Calculator is not working</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6088,12 +6088,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>17697</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Merck Durham Cafe</t>
+          <t>AstraZeneca Wilmington</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -6101,17 +6101,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>My everyday experience is eventful…because the quality is not good…tasteless and usually burnt.</t>
+          <t xml:space="preserve">Missing main ingredient on sandwich </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -6168,12 +6168,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>17697</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AstraZeneca Wilmington</t>
+          <t>Merck Durham Cafe</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -6181,17 +6181,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Missing main ingredient on sandwich </t>
+          <t>My everyday experience is eventful…because the quality is not good…tasteless and usually burnt.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -6208,12 +6208,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17697</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Merck Durham Cafe</t>
+          <t>Vanguard Orion</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -6221,17 +6221,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">No flavor in chicken Tinga, beans etc.  taste like hospital food . Please bring back Chef Wayne before it’s too late </t>
+          <t>Something n was out of stock on the salad bar</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6261,17 +6261,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Something n was out of stock on the salad bar</t>
+          <t>Today's menu lists Vegan bratwurst.  I went to get it which includes 2 sides, but the potato salad contains bacon. The online menu states "Warm Bacon German Potato Salad" with a V symbol next to it. Bacon is not vegetarian.  A similar event happened 2 weeks ago when a feature salad contained chicken and did not list it contained chicken.  I discarded it and went out for pizza.  Side note, you need to rework the pizza recipe.  I appreciate you offering vegetarian options, but without execution of meals actually being vegetarian, it's pointless.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>16295</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vanguard Orion</t>
+          <t>Merck WP Building 53  Cafe</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -6301,17 +6301,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Today's menu lists Vegan bratwurst.  I went to get it which includes 2 sides, but the potato salad contains bacon. The online menu states "Warm Bacon German Potato Salad" with a V symbol next to it. Bacon is not vegetarian.  A similar event happened 2 weeks ago when a feature salad contained chicken and did not list it contained chicken.  I discarded it and went out for pizza.  Side note, you need to rework the pizza recipe.  I appreciate you offering vegetarian options, but without execution of meals actually being vegetarian, it's pointless.</t>
+          <t xml:space="preserve">Ingredients missing </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Food tastes like hospital food. No variety. You can count on some kind of brisket dish or chicken dish at least twice every week. Always have same choice of hot protein dish most days </t>
+          <t xml:space="preserve">No flavor in chicken Tinga, beans etc.  taste like hospital food . Please bring back Chef Wayne before it’s too late </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6426,12 +6426,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Food quality has suffered since changing chefs in 2025.  Food no flavor, same menu most weeks </t>
+          <t xml:space="preserve">Food tastes like hospital food. No variety. You can count on some kind of brisket dish or chicken dish at least twice every week. Always have same choice of hot protein dish most days </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>58592</t>
+          <t>58590</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vanguard Orion</t>
+          <t>Vanguard Morgan</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Incorrct vegetarian tag</t>
+          <t xml:space="preserve">Hi, I ordered the same sausage with my colleague, but I got a vegetarian one which tastes not good at all (I didn’t ask for a vegetarian option either). </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16295</t>
+          <t>58592</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Merck WP Building 53  Cafe</t>
+          <t>Vanguard Orion</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -6581,17 +6581,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>I ordered a Texas toast with over hard eggs and other add ons, but the eggs were over easy and exploded all over the rest of my food. I was unable to eat it, because I do not like the runny yolks</t>
+          <t>Incorrct vegetarian tag</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -6661,17 +6661,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark. We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ingredients missing </t>
+          <t>I ordered a Texas toast with over hard eggs and other add ons, but the eggs were over easy and exploded all over the rest of my food. I was unable to eat it, because I do not like the runny yolks</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>58590</t>
+          <t>17697</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vanguard Morgan</t>
+          <t>Merck Durham Cafe</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -6746,12 +6746,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, I ordered the same sausage with my colleague, but I got a vegetarian one which tastes not good at all (I didn’t ask for a vegetarian option either). </t>
+          <t xml:space="preserve">Food quality has suffered since changing chefs in 2025.  Food no flavor, same menu most weeks </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">The new Chai at the coffee is not good at all! Can we get the old chai back please? </t>
+          <t>Change in type of chai used - it is not good like the old one</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Change in type of chai used - it is not good like the old one</t>
+          <t xml:space="preserve">The new Chai at the coffee is not good at all! Can we get the old chai back please? </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6928,12 +6928,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58965</t>
+          <t>58597</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CSL Behring Café 1040</t>
+          <t>Vanguard Water Ridge</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -6941,17 +6941,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>The ham and bean soup today was downright too salty for human consumption.  I was surprised, as the food is usually delicious and well seasoned.  Fortunately I tasted before I purchased, so I was able to avoid throwing money away on something I couldn't eat.</t>
+          <t xml:space="preserve">Sandwich was not made correctly at Deli. This is the worst one I've had. </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6968,12 +6968,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>57218</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vanguard Water Ridge</t>
+          <t>Asurion Coffee Bar</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -6981,17 +6981,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I ordered a chicken salad sandwich the deli worker did not take the time to make the sandwich properly, it was dry and thrown together. Normally the quality is far better. Very disappointed.</t>
+          <t xml:space="preserve">Person at the counter didn’t know which pastries were gluten free. Also it would be good to have more lunch options and gluten free options. </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -7008,12 +7008,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>58965</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vanguard Water Ridge</t>
+          <t>CSL Behring Café 1040</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Two North Falls no longer has sushi</t>
+          <t>The ham and bean soup today was downright too salty for human consumption.  I was surprised, as the food is usually delicious and well seasoned.  Fortunately I tasted before I purchased, so I was able to avoid throwing money away on something I couldn't eat.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>51745</t>
+          <t>58597</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bayer Creve Coeur Cafe A</t>
+          <t>Vanguard Water Ridge</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">I would really like the option of a flour or wheat tortilla for the wraps. I'm not sure how after years of offering these options, they are unavailable now. </t>
+          <t>Two North Falls no longer has sushi</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7088,12 +7088,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58598</t>
+          <t>51745</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vanguard Windsor</t>
+          <t>Bayer Creve Coeur Cafe A</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
+          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Missing carrots or pickle spears at both deli and grill from time to time</t>
+          <t xml:space="preserve">I would really like the option of a flour or wheat tortilla for the wraps. I'm not sure how after years of offering these options, they are unavailable now. </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Two North Falls no longer has sushi</t>
+          <t>I ordered a chicken salad sandwich the deli worker did not take the time to make the sandwich properly, it was dry and thrown together. Normally the quality is far better. Very disappointed.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7181,12 +7181,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>It’s not like us to miss the mark.  We would love to make this right. Please leave your best contact information and we will be in touch soon. - Please let us know what happened during your experience</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sandwich was not made correctly at Deli. This is the worst one I've had. </t>
+          <t>Two North Falls no longer has sushi</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57218</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Asurion Coffee Bar</t>
+          <t>AstraZeneca Wilmington</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -7221,17 +7221,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Please select any issues or concerns that you experienced today: - Other: - Text</t>
+          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Person at the counter didn’t know which pastries were gluten free. Also it would be good to have more lunch options and gluten free options. </t>
+          <t>Nothing at this time.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -7248,12 +7248,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>58598</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AstraZeneca Wilmington</t>
+          <t>Vanguard Windsor</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -7261,17 +7261,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>That's incredible, we love when we have exceeded all of your expectations! What could we do to make your experience even better? (Optional)</t>
+          <t>You said order accuracy could be improved. What was incorrect about your most recent order? Select all that apply - Other, please specify - Text</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Nothing at this time.</t>
+          <t>Missing carrots or pickle spears at both deli and grill from time to time</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
